--- a/学习文档/优泽/优泽.xlsx
+++ b/学习文档/优泽/优泽.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/学习文档/优泽/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="3480" windowWidth="21780" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="3860" yWindow="3300" windowWidth="24140" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -43,13 +43,6 @@
     <t>内容</t>
     <rPh sb="0" eb="1">
       <t>nei r</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <rPh sb="0" eb="1">
-      <t>shuo m</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,27 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>后台</t>
-    <rPh sb="0" eb="1">
-      <t>hou tai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <rPh sb="0" eb="1">
-      <t>qi ta</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <rPh sb="0" eb="1">
-      <t>she ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>切换门店</t>
     <rPh sb="0" eb="1">
       <t>qie huan</t>
@@ -359,176 +331,217 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>启动页计时器，关闭启动页按钮</t>
-    <rPh sb="0" eb="1">
-      <t>qi dong y</t>
+    <t>加入外链</t>
+    <rPh sb="0" eb="1">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wai lian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面样式调整</t>
+    <rPh sb="0" eb="1">
+      <t>ye m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao zheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击可以查看链接内容</t>
+    <rPh sb="0" eb="1">
+      <t>dian ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lian jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建优惠券</t>
+    <rPh sb="0" eb="1">
+      <t>xin jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you hui q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放优惠券</t>
+    <rPh sb="0" eb="1">
+      <t>fa f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you hui q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员</t>
+    <rPh sb="0" eb="1">
+      <t>hui yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员列表</t>
+    <rPh sb="0" eb="1">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员详情</t>
+    <rPh sb="0" eb="1">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系会员</t>
+    <rPh sb="0" eb="1">
+      <t>lian xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置会员标签</t>
+    <rPh sb="0" eb="1">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao qian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向会员发送优惠券</t>
+    <rPh sb="0" eb="1">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hui y</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>ji shi qi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>guan bi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>qi dong ye</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>an niu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入外链</t>
-    <rPh sb="0" eb="1">
-      <t>jia ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wai lian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动页网页地址</t>
-    <rPh sb="0" eb="1">
-      <t>qi dong ye</t>
+      <t>fa s</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you hui q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员消费记录</t>
+    <rPh sb="0" eb="1">
+      <t>hui y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员预约</t>
+    <rPh sb="0" eb="1">
+      <t>hui y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理优惠券</t>
+    <rPh sb="0" eb="1">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you hui q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员积分</t>
+    <rPh sb="0" eb="1">
+      <t>hui y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：黑色：现有功能    红色：增加和需要修改的功能</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>wang ye</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>di zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取登陆验证码</t>
-    <rPh sb="0" eb="1">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng lu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yan zheng</t>
+      <t>hei se</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>ma</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆接口修改</t>
-    <rPh sb="0" eb="1">
-      <t>deng lu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu gai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络请求改为https</t>
-    <rPh sb="0" eb="1">
-      <t>wang l</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qing q</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果开发者账号申请</t>
-    <rPh sb="0" eb="1">
-      <t>ping g</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai fa zhe</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhang h</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shen q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面风格修改</t>
-    <rPh sb="0" eb="1">
-      <t>jie mian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng ge</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu gai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <rPh sb="0" eb="1">
-      <t>deng lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡券为服务</t>
-    <rPh sb="0" eb="1">
-      <t>ka quan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei fu wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <rPh sb="0" eb="1">
-      <t>ji fen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：红色字体表示要修改部分以及新增部分</t>
-    <rPh sb="0" eb="1">
-      <t>bei zhu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+      <t>xian you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>hong s</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>zi ti</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiu gai</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu fen</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yi ji</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xin z</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bu fen</t>
+    <rPh sb="17" eb="18">
+      <t>zeng j</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>he</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gong n</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -537,7 +550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +574,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -576,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -599,11 +620,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,16 +675,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -909,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -921,13 +1000,13 @@
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -939,335 +1018,285 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="A27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="10">
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B11:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习文档/优泽/优泽.xlsx
+++ b/学习文档/优泽/优泽.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/学习文档/优泽/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/个人/kakatool/学习文档/优泽/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="3300" windowWidth="24140" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="6760" yWindow="480" windowWidth="24140" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -253,23 +253,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>门店</t>
-    <rPh sb="0" eb="1">
-      <t>men d</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店列表</t>
-    <rPh sb="0" eb="1">
-      <t>men dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lie b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <rPh sb="0" eb="1">
       <t>xiang m</t>
@@ -280,16 +263,6 @@
     <t>优管家</t>
     <rPh sb="0" eb="1">
       <t>you guan jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换门店</t>
-    <rPh sb="0" eb="1">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>men dian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -380,135 +353,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新建优惠券</t>
-    <rPh sb="0" eb="1">
-      <t>xin jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you hui q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放优惠券</t>
-    <rPh sb="0" eb="1">
-      <t>fa f</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you hui q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员</t>
-    <rPh sb="0" eb="1">
-      <t>hui yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员列表</t>
-    <rPh sb="0" eb="1">
-      <t>hui yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lie b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员详情</t>
-    <rPh sb="0" eb="1">
-      <t>hui yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系会员</t>
-    <rPh sb="0" eb="1">
-      <t>lian xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hui y</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置会员标签</t>
-    <rPh sb="0" eb="1">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hui y</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao qian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向会员发送优惠券</t>
-    <rPh sb="0" eb="1">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hui y</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fa s</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you hui q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员消费记录</t>
-    <rPh sb="0" eb="1">
-      <t>hui y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao fei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji l</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员预约</t>
-    <rPh sb="0" eb="1">
-      <t>hui y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理优惠券</t>
-    <rPh sb="0" eb="1">
-      <t>guan li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you hui q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员积分</t>
-    <rPh sb="0" eb="1">
-      <t>hui y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji fen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注：黑色：现有功能    红色：增加和需要修改的功能</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
@@ -544,13 +388,16 @@
       <t>gong n</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无广告地址返回时显示固定启动页，有广告时地址时加载地址并按照返回的时间延迟启动app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,14 +416,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -661,11 +500,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,17 +514,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,17 +526,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1000,303 +818,195 @@
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="7">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
